--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prj\easy-rpc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\easy-rpc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CFD0C2-B999-4329-87BB-2A64F91C15FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8957E-DF40-486C-ACA5-80B24024AEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -186,6 +187,21 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <charset val="134"/>
@@ -215,21 +231,6 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -243,8 +244,2291 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>平均耗时</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>&amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>随机取样</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avgt (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>createUser</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>existUser</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getUser</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>listUser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27F5-4717-A510-1B6680A478AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p90 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>createUser</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>existUser</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getUser</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>listUser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27F5-4717-A510-1B6680A478AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p99 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>createUser</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>existUser</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getUser</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>listUser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9660000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27F5-4717-A510-1B6680A478AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p999 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>createUser</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>existUser</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getUser</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>listUser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7639999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-27F5-4717-A510-1B6680A478AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="600275848"/>
+        <c:axId val="600278472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="600275848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600278472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="600278472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="600275848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>吞吐量测试</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>thrpt (ops/ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>createUser</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>existUser</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>getUser</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>listUser</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64.754999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.454000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.373000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8072-4B4C-83B6-619DDBBB0D91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="395986296"/>
+        <c:axId val="395989904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="395986296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395989904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="395989904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395986296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6672628-D04F-46EF-8578-152EBA402F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF10D84A-0511-4C37-9338-11FD8BFA0D1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{96A063B3-4F21-4575-B173-E06B75B289E5}" name="表3" displayName="表3" ref="A1:F5" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{96A063B3-4F21-4575-B173-E06B75B289E5}" name="表3" displayName="表3" ref="A1:F5" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:F5" xr:uid="{7244BAFC-2126-4D5B-9CF6-6826A0B0AF40}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -254,12 +2538,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6DBF0222-A96C-4729-8694-E251D3EA886A}" name="Benchmark" totalsRowLabel="汇总" dataDxfId="6" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{2D6C540D-6F9F-4292-9B5B-D47269DF2AEC}" name="thrpt (ops/ms)" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{35B82985-C6AA-44E4-9C85-19CE3407B80B}" name="avgt (ms)" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{244805BA-B25B-4181-A8E4-B83A4B612731}" name="p90 (ms)" totalsRowFunction="average" dataDxfId="12" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B2FDFC92-0E00-43C7-81C9-532C10A53E40}" name="p99 (ms)" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F65320FC-9B69-4E00-AF3C-0FB638F59F91}" name="p999 (ms)" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{6DBF0222-A96C-4729-8694-E251D3EA886A}" name="Benchmark" totalsRowLabel="汇总" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2D6C540D-6F9F-4292-9B5B-D47269DF2AEC}" name="thrpt (ops/ms)" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{35B82985-C6AA-44E4-9C85-19CE3407B80B}" name="avgt (ms)" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{244805BA-B25B-4181-A8E4-B83A4B612731}" name="p90 (ms)" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B2FDFC92-0E00-43C7-81C9-532C10A53E40}" name="p99 (ms)" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F65320FC-9B69-4E00-AF3C-0FB638F59F91}" name="p999 (ms)" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -531,19 +2815,19 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:F5"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -563,92 +2847,106 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>39.095999999999997</v>
+        <v>64.754999999999995</v>
       </c>
       <c r="C2" s="1">
-        <v>0.84</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>1.43</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="E2" s="1">
-        <v>3.2069999999999999</v>
+        <v>1.329</v>
       </c>
       <c r="F2" s="1">
-        <v>6.1520000000000001</v>
+        <v>2.1219999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>35.707999999999998</v>
+        <v>61.619</v>
       </c>
       <c r="C3" s="1">
-        <v>0.83399999999999996</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>1.3640000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="1">
-        <v>2.9569999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="F3" s="1">
-        <v>5.1680000000000001</v>
+        <v>1.841</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>38.476999999999997</v>
+        <v>50.454000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.83599999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="1">
-        <v>1.538</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>3.3969999999999998</v>
+        <v>1.804</v>
       </c>
       <c r="F4" s="1">
-        <v>5.7779999999999996</v>
+        <v>3.5630000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>19.914999999999999</v>
+        <v>18.373000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1.635</v>
+        <v>1.744</v>
       </c>
       <c r="D5" s="1">
-        <v>2.331</v>
+        <v>2.04</v>
       </c>
       <c r="E5" s="1">
-        <v>4.6040000000000001</v>
+        <v>2.9660000000000002</v>
       </c>
       <c r="F5" s="1">
-        <v>11.058999999999999</v>
+        <v>3.7639999999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98864103-56BA-43EA-B41D-6E55DF9EC234}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\easy-rpc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8957E-DF40-486C-ACA5-80B24024AEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD9388A-194F-4595-BD7F-D58B767FC8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1037,7 +1037,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>吞吐量测试</a:t>
+              <a:t>吞吐量</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
@@ -2814,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
